--- a/natmiOut/OldD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itga10</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.6626613153488</v>
+        <v>0.059611</v>
       </c>
       <c r="H2">
-        <v>11.6626613153488</v>
+        <v>0.178833</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.004672740604968267</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.004702393918265596</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.51054910432969</v>
+        <v>0.6605333333333333</v>
       </c>
       <c r="N2">
-        <v>0.51054910432969</v>
+        <v>1.9816</v>
       </c>
       <c r="O2">
-        <v>0.1508348865611424</v>
+        <v>0.1637209603602522</v>
       </c>
       <c r="P2">
-        <v>0.1508348865611424</v>
+        <v>0.1961884434749868</v>
       </c>
       <c r="Q2">
-        <v>5.954361288651854</v>
+        <v>0.03937505253333333</v>
       </c>
       <c r="R2">
-        <v>5.954361288651854</v>
+        <v>0.3543754727999999</v>
       </c>
       <c r="S2">
-        <v>0.1508348865611424</v>
+        <v>0.0007650255793597505</v>
       </c>
       <c r="T2">
-        <v>0.1508348865611424</v>
+        <v>0.0009225553434307716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>11.6626613153488</v>
+        <v>0.059611</v>
       </c>
       <c r="H3">
-        <v>11.6626613153488</v>
+        <v>0.178833</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.004672740604968267</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.004702393918265596</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805768917009992</v>
+        <v>0.943352</v>
       </c>
       <c r="N3">
-        <v>0.805768917009992</v>
+        <v>2.830056</v>
       </c>
       <c r="O3">
-        <v>0.238053621406831</v>
+        <v>0.2338208953337171</v>
       </c>
       <c r="P3">
-        <v>0.238053621406831</v>
+        <v>0.2801898877609241</v>
       </c>
       <c r="Q3">
-        <v>9.39740997752293</v>
+        <v>0.056234156072</v>
       </c>
       <c r="R3">
-        <v>9.39740997752293</v>
+        <v>0.506107404648</v>
       </c>
       <c r="S3">
-        <v>0.238053621406831</v>
+        <v>0.001092584391915895</v>
       </c>
       <c r="T3">
-        <v>0.238053621406831</v>
+        <v>0.00131756322416649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>11.6626613153488</v>
+        <v>0.059611</v>
       </c>
       <c r="H4">
-        <v>11.6626613153488</v>
+        <v>0.178833</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.004672740604968267</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.004702393918265596</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.100408536525344</v>
+        <v>0.2167396666666667</v>
       </c>
       <c r="N4">
-        <v>0.100408536525344</v>
+        <v>0.650219</v>
       </c>
       <c r="O4">
-        <v>0.02966435566752173</v>
+        <v>0.05372147715204018</v>
       </c>
       <c r="P4">
-        <v>0.02966435566752173</v>
+        <v>0.06437497654817442</v>
       </c>
       <c r="Q4">
-        <v>1.171030754664916</v>
+        <v>0.01292006826966667</v>
       </c>
       <c r="R4">
-        <v>1.171030754664916</v>
+        <v>0.116280614427</v>
       </c>
       <c r="S4">
-        <v>0.02966435566752173</v>
+        <v>0.0002510265276472132</v>
       </c>
       <c r="T4">
-        <v>0.02966435566752173</v>
+        <v>0.0003027164982086258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,1053 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.059611</v>
+      </c>
+      <c r="H5">
+        <v>0.178833</v>
+      </c>
+      <c r="I5">
+        <v>0.004672740604968267</v>
+      </c>
+      <c r="J5">
+        <v>0.004702393918265596</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2108543333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.632563</v>
+      </c>
+      <c r="O5">
+        <v>0.05226272802198335</v>
+      </c>
+      <c r="P5">
+        <v>0.06262694306109612</v>
+      </c>
+      <c r="Q5">
+        <v>0.01256923766433333</v>
+      </c>
+      <c r="R5">
+        <v>0.113123138979</v>
+      </c>
+      <c r="S5">
+        <v>0.0002442101713547345</v>
+      </c>
+      <c r="T5">
+        <v>0.0002944965561700642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.059611</v>
+      </c>
+      <c r="H6">
+        <v>0.178833</v>
+      </c>
+      <c r="I6">
+        <v>0.004672740604968267</v>
+      </c>
+      <c r="J6">
+        <v>0.004702393918265596</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.0030275</v>
+      </c>
+      <c r="N6">
+        <v>4.006055</v>
+      </c>
+      <c r="O6">
+        <v>0.496473939132007</v>
+      </c>
+      <c r="P6">
+        <v>0.3966197491548185</v>
+      </c>
+      <c r="Q6">
+        <v>0.1194024723025</v>
+      </c>
+      <c r="R6">
+        <v>0.7164148338149999</v>
+      </c>
+      <c r="S6">
+        <v>0.002319893934690673</v>
+      </c>
+      <c r="T6">
+        <v>0.001865062296289645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H7">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J7">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6605333333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.9816</v>
+      </c>
+      <c r="O7">
+        <v>0.1637209603602522</v>
+      </c>
+      <c r="P7">
+        <v>0.1961884434749868</v>
+      </c>
+      <c r="Q7">
+        <v>8.177212653244446</v>
+      </c>
+      <c r="R7">
+        <v>73.59491387920001</v>
+      </c>
+      <c r="S7">
+        <v>0.158876660349858</v>
+      </c>
+      <c r="T7">
+        <v>0.1915916485758081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H8">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J8">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.943352</v>
+      </c>
+      <c r="N8">
+        <v>2.830056</v>
+      </c>
+      <c r="O8">
+        <v>0.2338208953337171</v>
+      </c>
+      <c r="P8">
+        <v>0.2801898877609241</v>
+      </c>
+      <c r="Q8">
+        <v>11.67842638907467</v>
+      </c>
+      <c r="R8">
+        <v>105.105837501672</v>
+      </c>
+      <c r="S8">
+        <v>0.2269024252538745</v>
+      </c>
+      <c r="T8">
+        <v>0.273624896347324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>11.6626613153488</v>
-      </c>
-      <c r="H5">
-        <v>11.6626613153488</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.96809452676339</v>
-      </c>
-      <c r="N5">
-        <v>1.96809452676339</v>
-      </c>
-      <c r="O5">
-        <v>0.581447136364505</v>
-      </c>
-      <c r="P5">
-        <v>0.581447136364505</v>
-      </c>
-      <c r="Q5">
-        <v>22.95321990223309</v>
-      </c>
-      <c r="R5">
-        <v>22.95321990223309</v>
-      </c>
-      <c r="S5">
-        <v>0.581447136364505</v>
-      </c>
-      <c r="T5">
-        <v>0.581447136364505</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H9">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J9">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2167396666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.650219</v>
+      </c>
+      <c r="O9">
+        <v>0.05372147715204018</v>
+      </c>
+      <c r="P9">
+        <v>0.06437497654817442</v>
+      </c>
+      <c r="Q9">
+        <v>2.683174724555889</v>
+      </c>
+      <c r="R9">
+        <v>24.148572521003</v>
+      </c>
+      <c r="S9">
+        <v>0.05213192532096504</v>
+      </c>
+      <c r="T9">
+        <v>0.0628666381435776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H10">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J10">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2108543333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.632563</v>
+      </c>
+      <c r="O10">
+        <v>0.05226272802198335</v>
+      </c>
+      <c r="P10">
+        <v>0.06262694306109612</v>
+      </c>
+      <c r="Q10">
+        <v>2.610315990903445</v>
+      </c>
+      <c r="R10">
+        <v>23.492843918131</v>
+      </c>
+      <c r="S10">
+        <v>0.05071633876710094</v>
+      </c>
+      <c r="T10">
+        <v>0.06115956196914558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.37971233333334</v>
+      </c>
+      <c r="H11">
+        <v>37.13913700000001</v>
+      </c>
+      <c r="I11">
+        <v>0.9704112411768488</v>
+      </c>
+      <c r="J11">
+        <v>0.9765694919753783</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.0030275</v>
+      </c>
+      <c r="N11">
+        <v>4.006055</v>
+      </c>
+      <c r="O11">
+        <v>0.496473939132007</v>
+      </c>
+      <c r="P11">
+        <v>0.3966197491548185</v>
+      </c>
+      <c r="Q11">
+        <v>24.79690424575584</v>
+      </c>
+      <c r="R11">
+        <v>148.781425474535</v>
+      </c>
+      <c r="S11">
+        <v>0.4817838914850502</v>
+      </c>
+      <c r="T11">
+        <v>0.3873267469395231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.229553</v>
+      </c>
+      <c r="I12">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J12">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6605333333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.9816</v>
+      </c>
+      <c r="O12">
+        <v>0.1637209603602522</v>
+      </c>
+      <c r="P12">
+        <v>0.1961884434749868</v>
+      </c>
+      <c r="Q12">
+        <v>0.05054246942222222</v>
+      </c>
+      <c r="R12">
+        <v>0.4548822248</v>
+      </c>
+      <c r="S12">
+        <v>0.0009819995013155784</v>
+      </c>
+      <c r="T12">
+        <v>0.001184207314928251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.229553</v>
+      </c>
+      <c r="I13">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J13">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.943352</v>
+      </c>
+      <c r="N13">
+        <v>2.830056</v>
+      </c>
+      <c r="O13">
+        <v>0.2338208953337171</v>
+      </c>
+      <c r="P13">
+        <v>0.2801898877609241</v>
+      </c>
+      <c r="Q13">
+        <v>0.07218309388533332</v>
+      </c>
+      <c r="R13">
+        <v>0.649647844968</v>
+      </c>
+      <c r="S13">
+        <v>0.001402459416983832</v>
+      </c>
+      <c r="T13">
+        <v>0.00169124597136485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.229553</v>
+      </c>
+      <c r="I14">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J14">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2167396666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.650219</v>
+      </c>
+      <c r="O14">
+        <v>0.05372147715204018</v>
+      </c>
+      <c r="P14">
+        <v>0.06437497654817442</v>
+      </c>
+      <c r="Q14">
+        <v>0.01658441356744444</v>
+      </c>
+      <c r="R14">
+        <v>0.149259722107</v>
+      </c>
+      <c r="S14">
+        <v>0.0003222218075019752</v>
+      </c>
+      <c r="T14">
+        <v>0.0003885719096211812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.229553</v>
+      </c>
+      <c r="I15">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J15">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2108543333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.632563</v>
+      </c>
+      <c r="O15">
+        <v>0.05226272802198335</v>
+      </c>
+      <c r="P15">
+        <v>0.06262694306109612</v>
+      </c>
+      <c r="Q15">
+        <v>0.01613408159322222</v>
+      </c>
+      <c r="R15">
+        <v>0.145206734339</v>
+      </c>
+      <c r="S15">
+        <v>0.0003134722196965514</v>
+      </c>
+      <c r="T15">
+        <v>0.0003780206559108596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07651766666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.229553</v>
+      </c>
+      <c r="I16">
+        <v>0.005998007213949779</v>
+      </c>
+      <c r="J16">
+        <v>0.006036070697911585</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.0030275</v>
+      </c>
+      <c r="N16">
+        <v>4.006055</v>
+      </c>
+      <c r="O16">
+        <v>0.496473939132007</v>
+      </c>
+      <c r="P16">
+        <v>0.3966197491548185</v>
+      </c>
+      <c r="Q16">
+        <v>0.1532669905691667</v>
+      </c>
+      <c r="R16">
+        <v>0.919601943415</v>
+      </c>
+      <c r="S16">
+        <v>0.002977854268451841</v>
+      </c>
+      <c r="T16">
+        <v>0.002394024846086443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.2413405</v>
+      </c>
+      <c r="H17">
+        <v>0.482681</v>
+      </c>
+      <c r="I17">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J17">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6605333333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.9816</v>
+      </c>
+      <c r="O17">
+        <v>0.1637209603602522</v>
+      </c>
+      <c r="P17">
+        <v>0.1961884434749868</v>
+      </c>
+      <c r="Q17">
+        <v>0.1594134449333333</v>
+      </c>
+      <c r="R17">
+        <v>0.9564806696</v>
+      </c>
+      <c r="S17">
+        <v>0.003097274929718875</v>
+      </c>
+      <c r="T17">
+        <v>0.002490032240819694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.2413405</v>
+      </c>
+      <c r="H18">
+        <v>0.482681</v>
+      </c>
+      <c r="I18">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J18">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.943352</v>
+      </c>
+      <c r="N18">
+        <v>2.830056</v>
+      </c>
+      <c r="O18">
+        <v>0.2338208953337171</v>
+      </c>
+      <c r="P18">
+        <v>0.2801898877609241</v>
+      </c>
+      <c r="Q18">
+        <v>0.227669043356</v>
+      </c>
+      <c r="R18">
+        <v>1.366014260136</v>
+      </c>
+      <c r="S18">
+        <v>0.004423426270942916</v>
+      </c>
+      <c r="T18">
+        <v>0.003556182218068844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.2413405</v>
+      </c>
+      <c r="H19">
+        <v>0.482681</v>
+      </c>
+      <c r="I19">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J19">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2167396666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.650219</v>
+      </c>
+      <c r="O19">
+        <v>0.05372147715204018</v>
+      </c>
+      <c r="P19">
+        <v>0.06437497654817442</v>
+      </c>
+      <c r="Q19">
+        <v>0.05230805952316667</v>
+      </c>
+      <c r="R19">
+        <v>0.313848357139</v>
+      </c>
+      <c r="S19">
+        <v>0.001016303495925958</v>
+      </c>
+      <c r="T19">
+        <v>0.0008170499967670269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.2413405</v>
+      </c>
+      <c r="H20">
+        <v>0.482681</v>
+      </c>
+      <c r="I20">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J20">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2108543333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.632563</v>
+      </c>
+      <c r="O20">
+        <v>0.05226272802198335</v>
+      </c>
+      <c r="P20">
+        <v>0.06262694306109612</v>
+      </c>
+      <c r="Q20">
+        <v>0.05088769023383333</v>
+      </c>
+      <c r="R20">
+        <v>0.305326141403</v>
+      </c>
+      <c r="S20">
+        <v>0.0009887068638311269</v>
+      </c>
+      <c r="T20">
+        <v>0.0007948638798696145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.2413405</v>
+      </c>
+      <c r="H21">
+        <v>0.482681</v>
+      </c>
+      <c r="I21">
+        <v>0.01891801100423318</v>
+      </c>
+      <c r="J21">
+        <v>0.01269204340844451</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.0030275</v>
+      </c>
+      <c r="N21">
+        <v>4.006055</v>
+      </c>
+      <c r="O21">
+        <v>0.496473939132007</v>
+      </c>
+      <c r="P21">
+        <v>0.3966197491548185</v>
+      </c>
+      <c r="Q21">
+        <v>0.48341165836375</v>
+      </c>
+      <c r="R21">
+        <v>1.933646633455</v>
+      </c>
+      <c r="S21">
+        <v>0.009392299443814305</v>
+      </c>
+      <c r="T21">
+        <v>0.005033915072919328</v>
       </c>
     </row>
   </sheetData>
